--- a/docs/Simple/templates/Shared.xlsx
+++ b/docs/Simple/templates/Shared.xlsx
@@ -126,19 +126,19 @@
     </row>
     <row r="5">
       <c r="C5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&E5&") VALUES ("&G5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&E5&") VALUES ("&G5&");" ]]></f>
       </c>
       <c r="D5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="E5">
-        <f><![CDATA[D5&IF(AND(D5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  D5&IF(AND(D5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="F5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="G5">
-        <f><![CDATA[F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"","'"&TEXT(B5,"YYYY-MM-DD")&" "&TEXT(B5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"", "'"&TEXT(B5,"YYYY-MM-DD")&" "&TEXT(B5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Simple/templates/Shared.xlsx
+++ b/docs/Simple/templates/Shared.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t/>
   </si>
@@ -23,10 +23,16 @@
     <t>Modification data structure</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
+  </si>
+  <si>
+    <t>Timestamp of record update</t>
   </si>
   <si>
     <t>updated_at</t>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,7 +111,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -113,7 +119,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -121,24 +127,32 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&E5&") VALUES ("&G5&");" ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
       </c>
-      <c r="D5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
       </c>
-      <c r="E5">
-        <f><![CDATA[  D5&IF(AND(D5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
+    </row>
+    <row r="6">
+      <c r="C6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&E6&") VALUES ("&G6&");" ]]></f>
       </c>
-      <c r="F5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
+      <c r="D6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
       </c>
-      <c r="G5">
-        <f><![CDATA[  F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"", "'"&TEXT(B5,"YYYY-MM-DD")&" "&TEXT(B5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="E6">
+        <f><![CDATA[  D6&IF(AND(D6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="F6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="G6">
+        <f><![CDATA[  F6&IF(AND(F6<>"",B6<>""),", ","")&IF(B6<>"", "'"&TEXT(B6,"YYYY-MM-DD")&" "&TEXT(B6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
